--- a/臨床検査項目基本セット43項目.xlsx
+++ b/臨床検査項目基本セット43項目.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100F55E3-6722-D845-8ADA-ADB143BB7F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2538D2-CC55-C549-9E7D-A65E1F88C59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="2820" windowWidth="44420" windowHeight="18000" xr2:uid="{C6AE29B9-F53D-C045-8E0F-C99628E9244E}"/>
+    <workbookView xWindow="8600" yWindow="2020" windowWidth="44420" windowHeight="18000" xr2:uid="{C6AE29B9-F53D-C045-8E0F-C99628E9244E}"/>
   </bookViews>
   <sheets>
-    <sheet name="臨床検査項目基本コードセット" sheetId="6" r:id="rId1"/>
+    <sheet name="臨床検査項目基本コードセット４３" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">臨床検査項目基本コードセット!$A$2:$I$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">臨床検査項目基本コードセット４３!$A$2:$I$66</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="237">
   <si>
     <t>生化学検査</t>
   </si>
@@ -962,6 +962,34 @@
   </si>
   <si>
     <t>BS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JLAC11をここから右方向に１列ひとつでならべてみる。どのJLAC10と対応づくか曖昧な場合には、１行ふやしてJLAC10は空欄の行とし、そこにJLAC11をJ列以降にならべる。</t>
+    <rPh sb="11" eb="14">
+      <t xml:space="preserve">ミギホウコウ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">アイマイ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">クウラｎ </t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t xml:space="preserve">ギョウ </t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t xml:space="preserve">レツ </t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1148,9 +1176,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1162,6 +1187,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1481,7 +1509,7 @@
   <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I66"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1495,22 +1523,23 @@
     <col min="7" max="7" width="18.5703125" style="15" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="13" customWidth="1"/>
     <col min="9" max="9" width="33.42578125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="31" customHeight="1">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="104" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>187</v>
       </c>
@@ -1538,7 +1567,9 @@
       <c r="I2" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="J2" s="19"/>
+      <c r="J2" s="18" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A3" s="3">
@@ -1566,7 +1597,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="J3" s="19"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A4" s="3">
@@ -1594,7 +1625,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="19"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A5" s="6">
@@ -1620,7 +1651,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="20"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A6" s="3">
@@ -1648,7 +1679,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="19"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A7" s="3">
@@ -1676,7 +1707,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="19"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A8" s="3">
@@ -1704,7 +1735,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="19"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A9" s="3"/>
@@ -1728,7 +1759,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="19"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A10" s="3">
@@ -1756,7 +1787,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A11" s="3"/>
@@ -1780,7 +1811,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="19"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A12" s="3">
@@ -1808,7 +1839,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="19"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A13" s="3">
@@ -1834,7 +1865,7 @@
         <v>15</v>
       </c>
       <c r="I13" s="11"/>
-      <c r="J13" s="20"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A14" s="3">
@@ -1860,7 +1891,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="11"/>
-      <c r="J14" s="20"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A15" s="3">
@@ -1886,7 +1917,7 @@
         <v>32</v>
       </c>
       <c r="I15" s="11"/>
-      <c r="J15" s="20"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A16" s="3"/>
@@ -1910,7 +1941,7 @@
         <v>32</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="19"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A17" s="3">
@@ -1936,7 +1967,7 @@
         <v>201</v>
       </c>
       <c r="I17" s="11"/>
-      <c r="J17" s="20"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="32">
       <c r="A18" s="3">
@@ -1964,7 +1995,7 @@
         <v>32</v>
       </c>
       <c r="I18" s="10"/>
-      <c r="J18" s="19"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A19" s="3">
@@ -1990,7 +2021,7 @@
         <v>32</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="20"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A20" s="3">
@@ -2018,7 +2049,7 @@
         <v>32</v>
       </c>
       <c r="I20" s="10"/>
-      <c r="J20" s="19"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="32">
       <c r="A21" s="3"/>
@@ -2042,7 +2073,7 @@
         <v>32</v>
       </c>
       <c r="I21" s="10"/>
-      <c r="J21" s="19"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="48">
       <c r="A22" s="3"/>
@@ -2066,7 +2097,7 @@
         <v>32</v>
       </c>
       <c r="I22" s="10"/>
-      <c r="J22" s="19"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A23" s="3"/>
@@ -2090,7 +2121,7 @@
         <v>32</v>
       </c>
       <c r="I23" s="10"/>
-      <c r="J23" s="19"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="32">
       <c r="A24" s="3"/>
@@ -2114,7 +2145,7 @@
         <v>32</v>
       </c>
       <c r="I24" s="10"/>
-      <c r="J24" s="19"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="48">
       <c r="A25" s="3"/>
@@ -2138,7 +2169,7 @@
         <v>32</v>
       </c>
       <c r="I25" s="10"/>
-      <c r="J25" s="19"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="32">
       <c r="A26" s="3">
@@ -2166,7 +2197,7 @@
         <v>49</v>
       </c>
       <c r="I26" s="10"/>
-      <c r="J26" s="19"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A27" s="3"/>
@@ -2190,7 +2221,7 @@
         <v>49</v>
       </c>
       <c r="I27" s="10"/>
-      <c r="J27" s="19"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A28" s="3"/>
@@ -2214,7 +2245,7 @@
         <v>49</v>
       </c>
       <c r="I28" s="10"/>
-      <c r="J28" s="19"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" s="3" customFormat="1" ht="32">
       <c r="A29" s="3">
@@ -2242,7 +2273,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="21"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10" s="3" customFormat="1" ht="32">
       <c r="B30" s="7" t="s">
@@ -2265,7 +2296,7 @@
         <v>32</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="21"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="32">
       <c r="A31" s="3"/>
@@ -2289,7 +2320,7 @@
         <v>32</v>
       </c>
       <c r="I31" s="10"/>
-      <c r="J31" s="19"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="32">
       <c r="A32" s="3"/>
@@ -2313,7 +2344,7 @@
         <v>32</v>
       </c>
       <c r="I32" s="10"/>
-      <c r="J32" s="19"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="32">
       <c r="A33" s="3">
@@ -2341,7 +2372,7 @@
         <v>32</v>
       </c>
       <c r="I33" s="10"/>
-      <c r="J33" s="19"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="32">
       <c r="A34" s="3"/>
@@ -2365,7 +2396,7 @@
         <v>32</v>
       </c>
       <c r="I34" s="10"/>
-      <c r="J34" s="19"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A35" s="3">
@@ -2393,7 +2424,7 @@
         <v>32</v>
       </c>
       <c r="I35" s="10"/>
-      <c r="J35" s="19"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A36" s="3"/>
@@ -2417,7 +2448,7 @@
         <v>32</v>
       </c>
       <c r="I36" s="10"/>
-      <c r="J36" s="19"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A37" s="3">
@@ -2445,7 +2476,7 @@
         <v>32</v>
       </c>
       <c r="I37" s="10"/>
-      <c r="J37" s="19"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A38" s="3"/>
@@ -2469,7 +2500,7 @@
         <v>32</v>
       </c>
       <c r="I38" s="10"/>
-      <c r="J38" s="19"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A39" s="3"/>
@@ -2493,7 +2524,7 @@
         <v>32</v>
       </c>
       <c r="I39" s="10"/>
-      <c r="J39" s="19"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A40" s="6">
@@ -2519,7 +2550,7 @@
         <v>210</v>
       </c>
       <c r="I40" s="11"/>
-      <c r="J40" s="20"/>
+      <c r="J40" s="19"/>
     </row>
     <row r="41" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A41" s="6">
@@ -2545,7 +2576,7 @@
         <v>210</v>
       </c>
       <c r="I41" s="11"/>
-      <c r="J41" s="20"/>
+      <c r="J41" s="19"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A42" s="6">
@@ -2571,7 +2602,7 @@
         <v>210</v>
       </c>
       <c r="I42" s="11"/>
-      <c r="J42" s="20"/>
+      <c r="J42" s="19"/>
     </row>
     <row r="43" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A43" s="6">
@@ -2597,7 +2628,7 @@
         <v>32</v>
       </c>
       <c r="I43" s="11"/>
-      <c r="J43" s="20"/>
+      <c r="J43" s="19"/>
     </row>
     <row r="44" spans="1:10" s="4" customFormat="1" ht="32">
       <c r="A44" s="3">
@@ -2625,7 +2656,7 @@
         <v>32</v>
       </c>
       <c r="I44" s="10"/>
-      <c r="J44" s="19"/>
+      <c r="J44" s="18"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A45" s="3">
@@ -2651,7 +2682,7 @@
         <v>32</v>
       </c>
       <c r="I45" s="10"/>
-      <c r="J45" s="19"/>
+      <c r="J45" s="18"/>
     </row>
     <row r="46" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A46" s="3">
@@ -2679,7 +2710,7 @@
         <v>59</v>
       </c>
       <c r="I46" s="10"/>
-      <c r="J46" s="19"/>
+      <c r="J46" s="18"/>
     </row>
     <row r="47" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A47" s="3">
@@ -2707,7 +2738,7 @@
         <v>193</v>
       </c>
       <c r="I47" s="10"/>
-      <c r="J47" s="19"/>
+      <c r="J47" s="18"/>
     </row>
     <row r="48" spans="1:10" s="4" customFormat="1" ht="32">
       <c r="A48" s="3">
@@ -2735,7 +2766,7 @@
         <v>3</v>
       </c>
       <c r="I48" s="10"/>
-      <c r="J48" s="19"/>
+      <c r="J48" s="18"/>
     </row>
     <row r="49" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A49" s="3">
@@ -2763,7 +2794,7 @@
         <v>193</v>
       </c>
       <c r="I49" s="10"/>
-      <c r="J49" s="19"/>
+      <c r="J49" s="18"/>
     </row>
     <row r="50" spans="1:10" s="5" customFormat="1" ht="48">
       <c r="A50" s="6">
@@ -2789,7 +2820,7 @@
         <v>197</v>
       </c>
       <c r="I50" s="11"/>
-      <c r="J50" s="20"/>
+      <c r="J50" s="19"/>
     </row>
     <row r="51" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A51" s="6">
@@ -2815,7 +2846,7 @@
         <v>197</v>
       </c>
       <c r="I51" s="11"/>
-      <c r="J51" s="20"/>
+      <c r="J51" s="19"/>
     </row>
     <row r="52" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A52" s="6"/>
@@ -2835,7 +2866,7 @@
         <v>203</v>
       </c>
       <c r="I52" s="11"/>
-      <c r="J52" s="20"/>
+      <c r="J52" s="19"/>
     </row>
     <row r="53" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A53" s="6">
@@ -2861,7 +2892,7 @@
         <v>209</v>
       </c>
       <c r="I53" s="11"/>
-      <c r="J53" s="20"/>
+      <c r="J53" s="19"/>
     </row>
     <row r="54" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A54" s="3">
@@ -2885,11 +2916,11 @@
       <c r="G54" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18" t="s">
+      <c r="H54" s="22"/>
+      <c r="I54" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="J54" s="19"/>
+      <c r="J54" s="18"/>
     </row>
     <row r="55" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A55" s="3"/>
@@ -2909,9 +2940,9 @@
       <c r="G55" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="19"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="18"/>
     </row>
     <row r="56" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A56" s="3">
@@ -2935,11 +2966,11 @@
       <c r="G56" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18" t="s">
+      <c r="H56" s="22"/>
+      <c r="I56" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="J56" s="19"/>
+      <c r="J56" s="18"/>
     </row>
     <row r="57" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A57" s="3"/>
@@ -2959,9 +2990,9 @@
       <c r="G57" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="19"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="18"/>
     </row>
     <row r="58" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A58" s="3">
@@ -2985,11 +3016,11 @@
       <c r="G58" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18" t="s">
+      <c r="H58" s="22"/>
+      <c r="I58" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="J58" s="19"/>
+      <c r="J58" s="18"/>
     </row>
     <row r="59" spans="1:10" s="4" customFormat="1" ht="16">
       <c r="A59" s="3"/>
@@ -3009,9 +3040,9 @@
       <c r="G59" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="19"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="18"/>
     </row>
     <row r="60" spans="1:10" s="5" customFormat="1" ht="32">
       <c r="A60" s="6">
@@ -3037,7 +3068,7 @@
         <v>200</v>
       </c>
       <c r="I60" s="11"/>
-      <c r="J60" s="20"/>
+      <c r="J60" s="19"/>
     </row>
     <row r="61" spans="1:10" s="4" customFormat="1" ht="48">
       <c r="A61" s="3">
@@ -3065,7 +3096,7 @@
         <v>194</v>
       </c>
       <c r="I61" s="10"/>
-      <c r="J61" s="19"/>
+      <c r="J61" s="18"/>
     </row>
     <row r="62" spans="1:10" s="5" customFormat="1" ht="32">
       <c r="A62" s="6">
@@ -3091,7 +3122,7 @@
         <v>207</v>
       </c>
       <c r="I62" s="11"/>
-      <c r="J62" s="20"/>
+      <c r="J62" s="19"/>
     </row>
     <row r="63" spans="1:10" s="5" customFormat="1" ht="64">
       <c r="A63" s="6">
@@ -3117,7 +3148,7 @@
         <v>207</v>
       </c>
       <c r="I63" s="11"/>
-      <c r="J63" s="20"/>
+      <c r="J63" s="19"/>
     </row>
     <row r="64" spans="1:10" s="5" customFormat="1" ht="32">
       <c r="A64" s="6">
@@ -3143,7 +3174,7 @@
         <v>32</v>
       </c>
       <c r="I64" s="11"/>
-      <c r="J64" s="20"/>
+      <c r="J64" s="19"/>
     </row>
     <row r="65" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A65" s="6">
@@ -3169,7 +3200,7 @@
       <c r="I65" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="J65" s="20"/>
+      <c r="J65" s="19"/>
     </row>
     <row r="66" spans="1:10" s="5" customFormat="1" ht="16">
       <c r="A66" s="6">
@@ -3193,7 +3224,7 @@
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
-      <c r="J66" s="20"/>
+      <c r="J66" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
